--- a/data-raw/PCAWG7_indel_classification_2021_09_03.xlsx
+++ b/data-raw/PCAWG7_indel_classification_2021_09_03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rpackages\ICAMS\all-branches\ICAMS\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F963F7E7-09DD-4A83-9BE8-6D408E2EB590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB373D1B-21CC-4BB6-8176-6D8CABFC90E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3592,7 +3592,7 @@
     <t>DEL:MH:5+:5+</t>
   </si>
   <si>
-    <t>ICAMS                    ID catalog    rowname</t>
+    <t>ICAMS                    ID catalog            row name</t>
   </si>
 </sst>
 </file>
@@ -3781,6 +3781,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3801,9 +3804,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4088,7 +4088,7 @@
   <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="F89" sqref="F89:F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
@@ -4107,22 +4107,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4130,25 +4130,25 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.05" customHeight="1" thickBot="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3">
@@ -4179,7 +4179,7 @@
       <c r="E7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4219,7 +4219,7 @@
       <c r="E9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4259,7 +4259,7 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4399,7 +4399,7 @@
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="11" t="s">
         <v>89</v>
       </c>
       <c r="T18" s="7"/>
@@ -4410,13 +4410,13 @@
       <c r="T19" s="7"/>
     </row>
     <row r="20" spans="1:20" ht="16.2" thickBot="1">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="17" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="18" t="s">
         <v>161</v>
       </c>
       <c r="Q20" s="9"/>
@@ -4435,7 +4435,7 @@
       <c r="E21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="18"/>
       <c r="Q21" s="9"/>
       <c r="T21" s="7"/>
     </row>
@@ -4455,7 +4455,7 @@
       <c r="E22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="11" t="s">
         <v>90</v>
       </c>
       <c r="Q22" s="9"/>
@@ -4477,7 +4477,7 @@
       <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="11" t="s">
         <v>91</v>
       </c>
       <c r="Q23" s="9"/>
@@ -4499,7 +4499,7 @@
       <c r="E24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="11" t="s">
         <v>92</v>
       </c>
       <c r="Q24" s="9"/>
@@ -4521,7 +4521,7 @@
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="11" t="s">
         <v>93</v>
       </c>
       <c r="Q25" s="9"/>
@@ -4543,7 +4543,7 @@
       <c r="E26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="11" t="s">
         <v>94</v>
       </c>
       <c r="Q26" s="9"/>
@@ -4565,7 +4565,7 @@
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="11" t="s">
         <v>95</v>
       </c>
       <c r="Q27" s="9"/>
@@ -4587,7 +4587,7 @@
       <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="11" t="s">
         <v>96</v>
       </c>
       <c r="Q28" s="9"/>
@@ -4609,7 +4609,7 @@
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="11" t="s">
         <v>97</v>
       </c>
       <c r="Q29" s="9"/>
@@ -4631,7 +4631,7 @@
       <c r="E30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="11" t="s">
         <v>98</v>
       </c>
       <c r="Q30" s="9"/>
@@ -4653,7 +4653,7 @@
       <c r="E31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       <c r="E33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4701,13 +4701,13 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="16.2" thickBot="1">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="17" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="18" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="E36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="10">
@@ -4742,7 +4742,7 @@
       <c r="E37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4762,7 +4762,7 @@
       <c r="E38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="E39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
       <c r="E40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       <c r="E41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
       <c r="E42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
       <c r="E43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4882,7 +4882,7 @@
       <c r="E44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4902,7 +4902,7 @@
       <c r="E45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       <c r="E46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4942,7 +4942,7 @@
       <c r="E47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4962,7 +4962,7 @@
       <c r="E48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       <c r="E49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
       <c r="E50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5022,7 +5022,7 @@
       <c r="E51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5042,7 +5042,7 @@
       <c r="E52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5062,7 +5062,7 @@
       <c r="E53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       <c r="E54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5102,7 +5102,7 @@
       <c r="E55" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       <c r="E56" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5142,7 +5142,7 @@
       <c r="E57" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       <c r="E58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       <c r="E59" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5202,7 +5202,7 @@
       <c r="E60" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5210,13 +5210,13 @@
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="16.2" thickBot="1">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="17" t="s">
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="18" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       <c r="E63" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="17"/>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3">
@@ -5251,7 +5251,7 @@
       <c r="E64" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="11" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       <c r="E65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       <c r="E66" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       <c r="E67" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F67" s="11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
       <c r="E68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       <c r="E69" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="18" t="s">
+      <c r="F69" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       <c r="E70" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="18" t="s">
+      <c r="F70" s="11" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       <c r="E71" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       <c r="E72" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="11" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       <c r="E73" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="F73" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       <c r="E74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       <c r="E75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="18" t="s">
+      <c r="F75" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       <c r="E76" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="F76" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       <c r="E77" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F77" s="18" t="s">
+      <c r="F77" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       <c r="E78" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F78" s="18" t="s">
+      <c r="F78" s="11" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       <c r="E79" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F79" s="18" t="s">
+      <c r="F79" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5571,7 +5571,7 @@
       <c r="E80" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="18" t="s">
+      <c r="F80" s="11" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       <c r="E81" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="11" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       <c r="E82" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="18" t="s">
+      <c r="F82" s="11" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       <c r="E83" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="11" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       <c r="E84" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F84" s="18" t="s">
+      <c r="F84" s="11" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       <c r="E85" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="F85" s="11" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       <c r="E86" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F86" s="18" t="s">
+      <c r="F86" s="11" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       <c r="E87" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F87" s="18" t="s">
+      <c r="F87" s="11" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5719,13 +5719,13 @@
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6" ht="16.2" thickBot="1">
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="17" t="s">
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="18" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5742,7 +5742,7 @@
       <c r="E90" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F90" s="17"/>
+      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="3">
@@ -5760,7 +5760,7 @@
       <c r="E91" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F91" s="18" t="s">
+      <c r="F91" s="11" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
       <c r="E92" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F92" s="18" t="s">
+      <c r="F92" s="11" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       <c r="E93" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F93" s="18" t="s">
+      <c r="F93" s="11" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5820,7 +5820,7 @@
       <c r="E94" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F94" s="18" t="s">
+      <c r="F94" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5840,7 +5840,7 @@
       <c r="E95" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F95" s="18" t="s">
+      <c r="F95" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5860,7 +5860,7 @@
       <c r="E96" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F96" s="18" t="s">
+      <c r="F96" s="11" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5880,7 +5880,7 @@
       <c r="E97" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F97" s="18" t="s">
+      <c r="F97" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5900,7 +5900,7 @@
       <c r="E98" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F98" s="18" t="s">
+      <c r="F98" s="11" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5920,7 +5920,7 @@
       <c r="E99" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F99" s="18" t="s">
+      <c r="F99" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5940,7 +5940,7 @@
       <c r="E100" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F100" s="18" t="s">
+      <c r="F100" s="11" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5960,7 +5960,7 @@
       <c r="E101" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F101" s="18" t="s">
+      <c r="F101" s="11" t="s">
         <v>160</v>
       </c>
     </row>

--- a/data-raw/PCAWG7_indel_classification_2021_09_03.xlsx
+++ b/data-raw/PCAWG7_indel_classification_2021_09_03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rpackages\ICAMS\all-branches\ICAMS\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB373D1B-21CC-4BB6-8176-6D8CABFC90E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E33132-97B4-4DB8-AA75-0CF67DA43563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3592,7 +3592,7 @@
     <t>DEL:MH:5+:5+</t>
   </si>
   <si>
-    <t>ICAMS                    ID catalog            row name</t>
+    <t>ICAMS ID catalog row name</t>
   </si>
 </sst>
 </file>
@@ -4409,7 +4409,7 @@
       <c r="Q19" s="8"/>
       <c r="T19" s="7"/>
     </row>
-    <row r="20" spans="1:20" ht="16.2" thickBot="1">
+    <row r="20" spans="1:20" ht="16.2" customHeight="1" thickBot="1">
       <c r="B20" s="17" t="s">
         <v>35</v>
       </c>
